--- a/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4A50B6-907B-42CE-8991-0CDA4F8B8401}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A2628-BE7D-4D3C-B1A7-111D5DBF7FAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1440" windowWidth="22035" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationData" sheetId="1" r:id="rId1"/>
     <sheet name="OrganizationEventData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +148,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,11 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,65 +542,80 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
     <col min="12" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="str">
+        <f>"Organization_Name_"&amp;A2</f>
+        <v>Organization_Name_1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>"Organization_Name_En_"&amp;A2</f>
+        <v>Organization_Name_En_1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -611,28 +648,34 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A2628-BE7D-4D3C-B1A7-111D5DBF7FAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5636F-B1BE-4474-819B-B1ADF609C304}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OrganizationData" sheetId="1" r:id="rId1"/>
-    <sheet name="OrganizationEventData" sheetId="2" r:id="rId2"/>
+    <sheet name="OrganizationData" sheetId="4" r:id="rId1"/>
+    <sheet name="OrganizationEventData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,109 +31,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>EventTitle</t>
+  </si>
+  <si>
+    <t>EventDesc</t>
+  </si>
+  <si>
+    <t>EventTime</t>
+  </si>
+  <si>
+    <t>EventBG</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name_En</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaType</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>IconBig</t>
   </si>
   <si>
     <t>ScaleDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EconomyDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGDescBrief</t>
+  </si>
+  <si>
+    <t>罗德岛</t>
+  </si>
+  <si>
+    <t>Organization_Name_1</t>
+  </si>
+  <si>
+    <t>Organization_Name_En_1</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>sdd</t>
+  </si>
+  <si>
+    <t>wss</t>
   </si>
   <si>
     <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGDescBrief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗德岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,26 +130,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,15 +151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,145 +500,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0014A5-0E23-4574-AE15-D00D65CC15C0}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="20" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>"Organization_Name_"&amp;A2</f>
-        <v>Organization_Name_1</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>"Organization_Name_En_"&amp;A2</f>
-        <v>Organization_Name_En_1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE66512-F667-4815-A536-F945D2ECB048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB148B0-8CE9-4C52-A95C-6F41044939C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -684,23 +615,24 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5636F-B1BE-4474-819B-B1ADF609C304}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355D5D9A-66F2-4C1C-AB8D-B026218A69E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>EventID</t>
   </si>
@@ -93,22 +93,29 @@
     <t>罗德岛</t>
   </si>
   <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>wss</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Organization/Icon/Organization_Icon_Medium_M_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Organization/Icon/Organization_Icon_Large_M_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Organization_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Organization_Name_En_1</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>sdd</t>
-  </si>
-  <si>
-    <t>wss</t>
-  </si>
-  <si>
-    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -151,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,73 +514,84 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="60.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrganizationMetaData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355D5D9A-66F2-4C1C-AB8D-B026218A69E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED4A22-6659-420D-91E1-D4115C1C9902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationData" sheetId="4" r:id="rId1"/>
-    <sheet name="OrganizationEventData" sheetId="3" r:id="rId2"/>
+    <sheet name="OrganizationTypeData" sheetId="5" r:id="rId2"/>
+    <sheet name="OrganizationEventData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>EventID</t>
   </si>
@@ -87,34 +88,80 @@
     <t>EconomyDesc</t>
   </si>
   <si>
+    <t>罗德岛</t>
+  </si>
+  <si>
+    <t>wss</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Organization/Icon/Organization_Icon_Medium_M_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Organization/Icon/Organization_Icon_Large_M_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization_Name_En_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BGDescBrief</t>
-  </si>
-  <si>
-    <t>罗德岛</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>wss</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>SpriteOutput/Organization/Icon/Organization_Icon_Medium_M_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Organization/Icon/Organization_Icon_Large_M_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization_Name_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization_Name_En_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGDescBrief_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrganizationType_Name_Medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrganizationType_Desc_Medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Organization/Type/Organization_Type_M_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0014A5-0E23-4574-AE15-D00D65CC15C0}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,7 +574,7 @@
     <col min="7" max="7" width="58.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -559,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -567,31 +614,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -602,6 +649,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAADA9D-DE73-4F24-ACCC-00110FE89637}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB148B0-8CE9-4C52-A95C-6F41044939C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
